--- a/documents/Testcases - Sprint 1.xlsx
+++ b/documents/Testcases - Sprint 1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffertyleung/Desktop/cs691/2023S-Leung/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06C252B-1A6E-904B-A35A-0717F6F301FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F2E98-7B8D-544D-A5FD-8C3628F5E4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20660" yWindow="-28300" windowWidth="68800" windowHeight="28300" xr2:uid="{C2C6040F-6285-EE49-B846-5A7D3268FB66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -214,9 +217,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,17 +541,17 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -554,10 +561,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -567,144 +574,146 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="D8" s="2"/>
       <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>